--- a/biology/Médecine/1543_en_santé_et_médecine/1543_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1543_en_santé_et_médecine/1543_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1543_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1543_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1543 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1543_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1543_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>François Rabelais est nommé maître des requêtes du Roi[1].
-Djelaleddin, médecin turc, est le premier à décrire la peste « comme une maladie contagieuse par piqûre[2] ».
-Fondation du jardin botanique de Pise, le premier en Europe qui soit destiné à l'enseignement universitaire et à l'acclimatation et qui, « rompant son lien avec la médecine [...]  s'émancipe des jardins d'apothicaires des moines médiévaux[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>François Rabelais est nommé maître des requêtes du Roi.
+Djelaleddin, médecin turc, est le premier à décrire la peste « comme une maladie contagieuse par piqûre ».
+Fondation du jardin botanique de Pise, le premier en Europe qui soit destiné à l'enseignement universitaire et à l'acclimatation et qui, « rompant son lien avec la médecine [...]  s'émancipe des jardins d'apothicaires des moines médiévaux ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1543_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1543_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Deuxième édition, et première en allemand, de l'Herbier de Leonhart Fuchs, sortie à Bâle des presses  de Michael Isingrin, le même qui vient d'imprimer l'originale, en latin, l'année précédente 1542[3].
-Juin : publication « à quelques jours de distance », chez Jean Oporin à Bâle, de la Fabrica[4] et de l'Épitomé[5] de Vésale.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deuxième édition, et première en allemand, de l'Herbier de Leonhart Fuchs, sortie à Bâle des presses  de Michael Isingrin, le même qui vient d'imprimer l'originale, en latin, l'année précédente 1542.
+Juin : publication « à quelques jours de distance », chez Jean Oporin à Bâle, de la Fabrica et de l'Épitomé de Vésale.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1543_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1543_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4 février : Johan Van Heurne (mort en 1601), médecin et philosophe néerlandais[6].
-10 août : Joost Balbian (de) (mort en 1616), médecin et alchimiste néerlandais[7].
-Costanzo Varolio (mort en 1575), anatomiste italien[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février : Johan Van Heurne (mort en 1601), médecin et philosophe néerlandais.
+10 août : Joost Balbian (de) (mort en 1616), médecin et alchimiste néerlandais.
+Costanzo Varolio (mort en 1575), anatomiste italien.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1543_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1543_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>24 mai : Nicolas Copernic (né en 1473), médecin, chanoine et astronome polonais[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>24 mai : Nicolas Copernic (né en 1473), médecin, chanoine et astronome polonais.</t>
         </is>
       </c>
     </row>
